--- a/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>34979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23510</v>
+        <v>24000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51633</v>
+        <v>50397</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09927010511665435</v>
+        <v>0.09927010511665441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06672070460476835</v>
+        <v>0.06811208129370419</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.146536212574404</v>
+        <v>0.1430283105301753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>11096</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5900</v>
+        <v>6224</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19268</v>
+        <v>18501</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06454332386573067</v>
+        <v>0.06454332386573068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03432095885641916</v>
+        <v>0.03620077037004741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1120774177690557</v>
+        <v>0.1076141659819515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -783,19 +783,19 @@
         <v>46075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35022</v>
+        <v>33676</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64643</v>
+        <v>62766</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08788250816711474</v>
+        <v>0.08788250816711475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06679950311980935</v>
+        <v>0.06423370692650236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1232989771566297</v>
+        <v>0.1197193153252178</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>317379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300725</v>
+        <v>301961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>328848</v>
+        <v>328358</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9007298948833455</v>
+        <v>0.9007298948833458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8534637874255958</v>
+        <v>0.8569716894698247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9332792953952317</v>
+        <v>0.9318879187062962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -833,19 +833,19 @@
         <v>160825</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152653</v>
+        <v>153420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166021</v>
+        <v>165697</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9354566761342693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8879225822309442</v>
+        <v>0.8923858340180482</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9656790411435807</v>
+        <v>0.9637992296299525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>556</v>
@@ -854,19 +854,19 @@
         <v>478204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>459636</v>
+        <v>461513</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>489257</v>
+        <v>490603</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9121174918328852</v>
+        <v>0.9121174918328853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8767010228433703</v>
+        <v>0.880280684674782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9332004968801905</v>
+        <v>0.9357662930734979</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>38849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25612</v>
+        <v>27024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54520</v>
+        <v>53710</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07793052318583114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05137801311418154</v>
+        <v>0.05420876223258944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1093668990458875</v>
+        <v>0.1077423065947826</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -979,19 +979,19 @@
         <v>25193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16382</v>
+        <v>17240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35558</v>
+        <v>36256</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1125263488363824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07316907905591957</v>
+        <v>0.07700266642787959</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1588193407329773</v>
+        <v>0.1619367249329433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -1000,19 +1000,19 @@
         <v>64042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49440</v>
+        <v>49314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84376</v>
+        <v>85125</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08865259536338131</v>
+        <v>0.0886525953633813</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06843940526649592</v>
+        <v>0.06826459260757638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1168010189669326</v>
+        <v>0.1178372719257832</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>459659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>443988</v>
+        <v>444798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>472896</v>
+        <v>471484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9220694768141688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8906331009541123</v>
+        <v>0.8922576934052173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9486219868858184</v>
+        <v>0.9457912377674105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>260</v>
@@ -1050,19 +1050,19 @@
         <v>198694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>188329</v>
+        <v>187631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>207505</v>
+        <v>206647</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8874736511636175</v>
+        <v>0.8874736511636178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8411806592670213</v>
+        <v>0.8380632750670564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9268309209440803</v>
+        <v>0.9229973335721204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -1071,19 +1071,19 @@
         <v>658353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>638019</v>
+        <v>637270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>672955</v>
+        <v>673081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9113474046366187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8831989810330674</v>
+        <v>0.8821627280742168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9315605947335041</v>
+        <v>0.9317354073924236</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>30136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19295</v>
+        <v>19785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42497</v>
+        <v>43408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.083614692459979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05353610268701328</v>
+        <v>0.05489516162672983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1179092129992042</v>
+        <v>0.1204382779269282</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>6248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2184</v>
+        <v>2095</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15462</v>
+        <v>15534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03117487604223527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01089837599861168</v>
+        <v>0.01045182926499642</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07714716508258949</v>
+        <v>0.07750754723244407</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1217,19 +1217,19 @@
         <v>36385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23738</v>
+        <v>25677</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49841</v>
+        <v>51028</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06487457509844194</v>
+        <v>0.06487457509844193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0423262328944508</v>
+        <v>0.04578226457145318</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08886714243043344</v>
+        <v>0.0909851322584201</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>330282</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>317921</v>
+        <v>317010</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341123</v>
+        <v>340633</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9163853075400211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8820907870007959</v>
+        <v>0.8795617220730721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9464638973129864</v>
+        <v>0.9451048383732701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -1267,19 +1267,19 @@
         <v>194177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>184963</v>
+        <v>184891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198241</v>
+        <v>198330</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9688251239577647</v>
+        <v>0.968825123957765</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9228528349174107</v>
+        <v>0.9224924527675554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9891016240013883</v>
+        <v>0.9895481707350035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>519</v>
@@ -1288,19 +1288,19 @@
         <v>524459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511003</v>
+        <v>509816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>537106</v>
+        <v>535167</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9351254249015583</v>
+        <v>0.9351254249015581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9111328575695666</v>
+        <v>0.9090148677415801</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.957673767105549</v>
+        <v>0.9542177354285468</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>57518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43324</v>
+        <v>44912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73512</v>
+        <v>74537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.12468373945078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09391407082410834</v>
+        <v>0.09735716067965336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1593531661588385</v>
+        <v>0.1615762427468916</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1413,19 +1413,19 @@
         <v>21648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13632</v>
+        <v>13047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33458</v>
+        <v>34017</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07030251869071825</v>
+        <v>0.07030251869071824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04427121257833962</v>
+        <v>0.04237095122130095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1086548062240644</v>
+        <v>0.1104697381151602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1434,19 +1434,19 @@
         <v>79167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61777</v>
+        <v>62999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98027</v>
+        <v>101562</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.102914760208777</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08030797205876143</v>
+        <v>0.08189707470243296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1274333355477752</v>
+        <v>0.1320276962517651</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>403796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>387802</v>
+        <v>386777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>417990</v>
+        <v>416402</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8753162605492201</v>
+        <v>0.8753162605492202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8406468338411616</v>
+        <v>0.8384237572531082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9060859291758916</v>
+        <v>0.9026428393203466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>395</v>
@@ -1484,19 +1484,19 @@
         <v>286283</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274473</v>
+        <v>273914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294299</v>
+        <v>294884</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9296974813092818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8913451937759356</v>
+        <v>0.8895302618848406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9557287874216603</v>
+        <v>0.957629048778699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>822</v>
@@ -1505,19 +1505,19 @@
         <v>690078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>671218</v>
+        <v>667683</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>707468</v>
+        <v>706246</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8970852397912229</v>
+        <v>0.897085239791223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8725666644522245</v>
+        <v>0.8679723037482349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9196920279412385</v>
+        <v>0.918102925297567</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>161482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138206</v>
+        <v>136227</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190216</v>
+        <v>191098</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09654572999107143</v>
+        <v>0.09654572999107146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08262968922257473</v>
+        <v>0.08144621024209657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1137248957514352</v>
+        <v>0.1142523877741546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -1630,19 +1630,19 @@
         <v>64186</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51081</v>
+        <v>49686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82548</v>
+        <v>82757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07098942938712387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05649558865560381</v>
+        <v>0.05495262141314547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09129741785422876</v>
+        <v>0.09152901146971104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -1651,19 +1651,19 @@
         <v>225668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194908</v>
+        <v>197331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>258344</v>
+        <v>258271</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08757822623834077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07564053034771717</v>
+        <v>0.07658115204466309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1002592540849506</v>
+        <v>0.100230720776468</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1511115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1482381</v>
+        <v>1481499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1534391</v>
+        <v>1536370</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9034542700089285</v>
+        <v>0.9034542700089288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8862751042485649</v>
+        <v>0.8857476122258453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9173703107774254</v>
+        <v>0.9185537897579034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1132</v>
@@ -1701,19 +1701,19 @@
         <v>839979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>821617</v>
+        <v>821408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>853084</v>
+        <v>854479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.929010570612876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9087025821457713</v>
+        <v>0.9084709885302884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9435044113443962</v>
+        <v>0.9450473785868545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2566</v>
@@ -1722,19 +1722,19 @@
         <v>2351094</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2318418</v>
+        <v>2318491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2381854</v>
+        <v>2379431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9124217737616592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8997407459150496</v>
+        <v>0.8997692792235319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9243594696522828</v>
+        <v>0.9234188479553369</v>
       </c>
     </row>
     <row r="18">
